--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H2">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9218602339762</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N2">
-        <v>11.9218602339762</v>
+        <v>51.97477</v>
       </c>
       <c r="O2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q2">
-        <v>241.5565942953792</v>
+        <v>358.6347198360278</v>
       </c>
       <c r="R2">
-        <v>241.5565942953792</v>
+        <v>3227.712478524249</v>
       </c>
       <c r="S2">
-        <v>0.1405423701229566</v>
+        <v>0.1499288810582576</v>
       </c>
       <c r="T2">
-        <v>0.1405423701229566</v>
+        <v>0.1499288810582576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H3">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53895892256346</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N3">
-        <v>6.53895892256346</v>
+        <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q3">
-        <v>132.4901161875981</v>
+        <v>136.4262792604972</v>
       </c>
       <c r="R3">
-        <v>132.4901161875981</v>
+        <v>1227.836513344475</v>
       </c>
       <c r="S3">
-        <v>0.07708535136946634</v>
+        <v>0.05703362855057553</v>
       </c>
       <c r="T3">
-        <v>0.07708535136946634</v>
+        <v>0.05703362855057553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H4">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.169131330974</v>
+        <v>0.111195</v>
       </c>
       <c r="N4">
-        <v>53.169131330974</v>
+        <v>0.333585</v>
       </c>
       <c r="O4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q4">
-        <v>1077.294485415242</v>
+        <v>2.301793024125</v>
       </c>
       <c r="R4">
-        <v>1077.294485415242</v>
+        <v>20.716137217125</v>
       </c>
       <c r="S4">
-        <v>0.626791086959555</v>
+        <v>0.0009622750766923811</v>
       </c>
       <c r="T4">
-        <v>0.626791086959555</v>
+        <v>0.0009622750766923811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.780055535763609</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H5">
-        <v>0.780055535763609</v>
+        <v>62.101525</v>
       </c>
       <c r="I5">
-        <v>0.03250936971605294</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J5">
-        <v>0.03250936971605294</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9218602339762</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N5">
-        <v>11.9218602339762</v>
+        <v>214.856537</v>
       </c>
       <c r="O5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q5">
-        <v>9.299713072113169</v>
+        <v>1482.546511546547</v>
       </c>
       <c r="R5">
-        <v>9.299713072113169</v>
+        <v>13342.91860391892</v>
       </c>
       <c r="S5">
-        <v>0.005410755688250856</v>
+        <v>0.619785333931485</v>
       </c>
       <c r="T5">
-        <v>0.005410755688250856</v>
+        <v>0.6197853339314849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53895892256346</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N6">
-        <v>6.53895892256346</v>
+        <v>51.97477</v>
       </c>
       <c r="O6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q6">
-        <v>5.100751105676471</v>
+        <v>13.73172845902556</v>
       </c>
       <c r="R6">
-        <v>5.100751105676471</v>
+        <v>123.58555613123</v>
       </c>
       <c r="S6">
-        <v>0.00296771715916172</v>
+        <v>0.005740611739429007</v>
       </c>
       <c r="T6">
-        <v>0.00296771715916172</v>
+        <v>0.005740611739429007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.169131330974</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N7">
-        <v>53.169131330974</v>
+        <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q7">
-        <v>41.47487522646861</v>
+        <v>5.223611986973445</v>
       </c>
       <c r="R7">
-        <v>41.47487522646861</v>
+        <v>47.012507882761</v>
       </c>
       <c r="S7">
-        <v>0.02413089686864036</v>
+        <v>0.002183754826212882</v>
       </c>
       <c r="T7">
-        <v>0.02413089686864036</v>
+        <v>0.002183754826212882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3068196933829</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
-        <v>1.3068196933829</v>
+        <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.05446264094878253</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J8">
-        <v>0.05446264094878253</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>11.9218602339762</v>
+        <v>0.111195</v>
       </c>
       <c r="N8">
-        <v>11.9218602339762</v>
+        <v>0.333585</v>
       </c>
       <c r="O8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q8">
-        <v>15.57972173551857</v>
+        <v>0.088133119935</v>
       </c>
       <c r="R8">
-        <v>15.57972173551857</v>
+        <v>0.7931980794150001</v>
       </c>
       <c r="S8">
-        <v>0.009064588052141652</v>
+        <v>3.684445293548053E-05</v>
       </c>
       <c r="T8">
-        <v>0.009064588052141652</v>
+        <v>3.684445293548053E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3068196933829</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
-        <v>1.3068196933829</v>
+        <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.05446264094878253</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J9">
-        <v>0.05446264094878253</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.53895892256346</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N9">
-        <v>6.53895892256346</v>
+        <v>214.856537</v>
       </c>
       <c r="O9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q9">
-        <v>8.545240294227758</v>
+        <v>56.76507320245145</v>
       </c>
       <c r="R9">
-        <v>8.545240294227758</v>
+        <v>510.885658822063</v>
       </c>
       <c r="S9">
-        <v>0.004971788610135799</v>
+        <v>0.02373089786823997</v>
       </c>
       <c r="T9">
-        <v>0.004971788610135799</v>
+        <v>0.02373089786823997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H10">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.169131330974</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N10">
-        <v>53.169131330974</v>
+        <v>51.97477</v>
       </c>
       <c r="O10">
-        <v>0.7422751372729526</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P10">
-        <v>0.7422751372729526</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q10">
-        <v>69.48246790337858</v>
+        <v>27.07037750751556</v>
       </c>
       <c r="R10">
-        <v>69.48246790337858</v>
+        <v>243.63339756764</v>
       </c>
       <c r="S10">
-        <v>0.04042626428650508</v>
+        <v>0.01131689483768356</v>
       </c>
       <c r="T10">
-        <v>0.04042626428650508</v>
+        <v>0.01131689483768356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.64626296417273</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H11">
-        <v>1.64626296417273</v>
+        <v>4.687532</v>
       </c>
       <c r="I11">
-        <v>0.0686091808831866</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J11">
-        <v>0.0686091808831866</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9218602339762</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N11">
-        <v>11.9218602339762</v>
+        <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.1664368068501512</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P11">
-        <v>0.1664368068501512</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q11">
-        <v>19.62651696723866</v>
+        <v>10.29769477761644</v>
       </c>
       <c r="R11">
-        <v>19.62651696723866</v>
+        <v>92.67925299854801</v>
       </c>
       <c r="S11">
-        <v>0.01141909298680201</v>
+        <v>0.004304998289606196</v>
       </c>
       <c r="T11">
-        <v>0.01141909298680201</v>
+        <v>0.004304998289606196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.64626296417273</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H12">
-        <v>1.64626296417273</v>
+        <v>4.687532</v>
       </c>
       <c r="I12">
-        <v>0.0686091808831866</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J12">
-        <v>0.0686091808831866</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>6.53895892256346</v>
+        <v>0.111195</v>
       </c>
       <c r="N12">
-        <v>6.53895892256346</v>
+        <v>0.333585</v>
       </c>
       <c r="O12">
-        <v>0.09128805587689628</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P12">
-        <v>0.09128805587689628</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q12">
-        <v>10.76484589846304</v>
+        <v>0.17374337358</v>
       </c>
       <c r="R12">
-        <v>10.76484589846304</v>
+        <v>1.56369036222</v>
       </c>
       <c r="S12">
-        <v>0.006263198738132423</v>
+        <v>7.263421010672428E-05</v>
       </c>
       <c r="T12">
-        <v>0.006263198738132423</v>
+        <v>7.263421010672429E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.64626296417273</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H13">
-        <v>1.64626296417273</v>
+        <v>4.687532</v>
       </c>
       <c r="I13">
-        <v>0.0686091808831866</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J13">
-        <v>0.0686091808831866</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.169131330974</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N13">
-        <v>53.169131330974</v>
+        <v>214.856537</v>
       </c>
       <c r="O13">
-        <v>0.7422751372729526</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P13">
-        <v>0.7422751372729526</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q13">
-        <v>87.53037174741841</v>
+        <v>111.9052102885205</v>
       </c>
       <c r="R13">
-        <v>87.53037174741841</v>
+        <v>1007.146892596684</v>
       </c>
       <c r="S13">
-        <v>0.05092688915825216</v>
+        <v>0.04678248377853075</v>
       </c>
       <c r="T13">
-        <v>0.05092688915825216</v>
+        <v>0.04678248377853075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.953751</v>
+      </c>
+      <c r="H14">
+        <v>5.861253</v>
+      </c>
+      <c r="I14">
+        <v>0.07812076138024482</v>
+      </c>
+      <c r="J14">
+        <v>0.07812076138024483</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N14">
+        <v>51.97477</v>
+      </c>
+      <c r="O14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q14">
+        <v>33.84858628742333</v>
+      </c>
+      <c r="R14">
+        <v>304.63727658681</v>
+      </c>
+      <c r="S14">
+        <v>0.01415055594672362</v>
+      </c>
+      <c r="T14">
+        <v>0.01415055594672362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.953751</v>
+      </c>
+      <c r="H15">
+        <v>5.861253</v>
+      </c>
+      <c r="I15">
+        <v>0.07812076138024482</v>
+      </c>
+      <c r="J15">
+        <v>0.07812076138024483</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.771439</v>
+      </c>
+      <c r="O15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q15">
+        <v>12.87615623922967</v>
+      </c>
+      <c r="R15">
+        <v>115.885406153067</v>
+      </c>
+      <c r="S15">
+        <v>0.005382935869013626</v>
+      </c>
+      <c r="T15">
+        <v>0.005382935869013627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.953751</v>
+      </c>
+      <c r="H16">
+        <v>5.861253</v>
+      </c>
+      <c r="I16">
+        <v>0.07812076138024482</v>
+      </c>
+      <c r="J16">
+        <v>0.07812076138024483</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.111195</v>
+      </c>
+      <c r="N16">
+        <v>0.333585</v>
+      </c>
+      <c r="O16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q16">
+        <v>0.217247342445</v>
+      </c>
+      <c r="R16">
+        <v>1.955226082005</v>
+      </c>
+      <c r="S16">
+        <v>9.082124279699168E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.082124279699169E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.953751</v>
+      </c>
+      <c r="H17">
+        <v>5.861253</v>
+      </c>
+      <c r="I17">
+        <v>0.07812076138024482</v>
+      </c>
+      <c r="J17">
+        <v>0.07812076138024483</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N17">
+        <v>214.856537</v>
+      </c>
+      <c r="O17">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P17">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q17">
+        <v>139.9253913400957</v>
+      </c>
+      <c r="R17">
+        <v>1259.328522060861</v>
+      </c>
+      <c r="S17">
+        <v>0.05849644832171059</v>
+      </c>
+      <c r="T17">
+        <v>0.0584964483217106</v>
       </c>
     </row>
   </sheetData>
